--- a/Weekly Tasks Folder/19.03.2016 - 25.03.2016/19.03.2016 - 25.03.2016 Белявский Иван.xlsx
+++ b/Weekly Tasks Folder/19.03.2016 - 25.03.2016/19.03.2016 - 25.03.2016 Белявский Иван.xlsx
@@ -582,7 +582,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
